--- a/biology/Zoologie/Eubiodectes_libanicus/Eubiodectes_libanicus.xlsx
+++ b/biology/Zoologie/Eubiodectes_libanicus/Eubiodectes_libanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eubiodectes
-Eubiodectes libanicus, unique représentant du genre Eubiodectes, est une espèce fossile de poissons osseux de la famille des Cladocyclidae et qui vivait lors du Crétacé supérieur (Cénomanien). Cette espèce est nommée libanicus car elle a été mise au jour au Liban, dans le gisement de Namoura[1],[2],[3].
+Eubiodectes libanicus, unique représentant du genre Eubiodectes, est une espèce fossile de poissons osseux de la famille des Cladocyclidae et qui vivait lors du Crétacé supérieur (Cénomanien). Cette espèce est nommée libanicus car elle a été mise au jour au Liban, dans le gisement de Namoura.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Eubiodectes libanicus (Pictet &amp; Humbert, 1866)[4].
-Cette espèce a été initialement décrite en 1866 par François-Jules Pictet et Humbert sous le protonyme Chirocentrites libanicus[5]. En 1903, Oliver Perry Hay la reclasse dans le genre Eubiodectes qu'il a créé à cette intention[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Eubiodectes libanicus (Pictet &amp; Humbert, 1866).
+Cette espèce a été initialement décrite en 1866 par François-Jules Pictet et Humbert sous le protonyme Chirocentrites libanicus. En 1903, Oliver Perry Hay la reclasse dans le genre Eubiodectes qu'il a créé à cette intention.
 </t>
         </is>
       </c>
